--- a/Templates/sono.xlsx
+++ b/Templates/sono.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Fettnekrose</t>
+  </si>
+  <si>
+    <t>Paren-Right</t>
+  </si>
+  <si>
+    <t>Histologie</t>
   </si>
 </sst>
 </file>
@@ -495,23 +501,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1F866-C4B7-4E57-A1E2-145A3E642787}">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,114 +532,120 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Templates/sono.xlsx
+++ b/Templates/sono.xlsx
@@ -503,14 +503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1F866-C4B7-4E57-A1E2-145A3E642787}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="11" max="12" width="10" customWidth="1"/>
     <col min="16" max="16" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.81640625" bestFit="1" customWidth="1"/>
@@ -553,13 +553,13 @@
         <v>39</v>
       </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
